--- a/Database/Records.xlsx
+++ b/Database/Records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79080\source\repos\BattleshipTheGame\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B327430-7BFC-4FC6-815A-A875A5C56731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E17ED0-2E40-48C1-BC13-D2B1311B946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{8C81B755-0B48-4708-9735-E253E5CCAE43}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{B6C3B8EE-3D33-4BFB-877F-FF450904F2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Charles Xavier's Mutant Kid</t>
-  </si>
-  <si>
-    <t>Lsr</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Lime354</t>
-  </si>
-  <si>
-    <t>Connor</t>
-  </si>
-  <si>
-    <t>Test777</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>test01</t>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>test04</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>Player100500</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850EE07-AD19-4C3A-8A25-E81E746320C4}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EA7AFA-649B-40EA-8E98-0D796119F514}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +423,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -431,28 +434,28 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -460,7 +463,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -468,22 +471,30 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B9">
     <sortCondition descending="1" ref="B1"/>
     <sortCondition ref="A1"/>
   </sortState>
